--- a/directory/2019년 서울 오피스 건강검진 명단자_09.30 (1).xlsx
+++ b/directory/2019년 서울 오피스 건강검진 명단자_09.30 (1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSM-N\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbnj0\copyhere\SECOND_REPO\directory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>사무직</t>
   </si>
@@ -151,6 +151,14 @@
   </si>
   <si>
     <t>참석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>did you catch?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1103,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1116,7 +1124,7 @@
     <col min="4" max="4" width="12.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="39" t="s">
         <v>12</v>
       </c>
@@ -1124,9 +1132,16 @@
       <c r="C1" s="39"/>
       <c r="D1" s="39"/>
       <c r="E1" s="39"/>
-    </row>
-    <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="34" t="s">
         <v>11</v>
       </c>
@@ -1143,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1156,7 +1171,7 @@
       <c r="D4" s="18"/>
       <c r="E4" s="37"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1167,7 +1182,7 @@
       <c r="D5" s="19"/>
       <c r="E5" s="37"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="29">
         <v>3</v>
       </c>
@@ -1178,7 +1193,7 @@
       <c r="D6" s="28"/>
       <c r="E6" s="37"/>
     </row>
-    <row r="7" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -1189,7 +1204,7 @@
       <c r="D7" s="20"/>
       <c r="E7" s="37"/>
     </row>
-    <row r="8" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -1202,7 +1217,7 @@
       <c r="D8" s="21"/>
       <c r="E8" s="37"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="15">
         <v>6</v>
       </c>
@@ -1215,7 +1230,7 @@
       <c r="D9" s="17"/>
       <c r="E9" s="37"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="31">
         <v>7</v>
       </c>
@@ -1226,7 +1241,7 @@
       <c r="D10" s="33"/>
       <c r="E10" s="37"/>
     </row>
-    <row r="11" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -1237,7 +1252,7 @@
       <c r="D11" s="14"/>
       <c r="E11" s="37"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -1250,7 +1265,7 @@
       <c r="D12" s="9"/>
       <c r="E12" s="37"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -1261,7 +1276,7 @@
       <c r="D13" s="11"/>
       <c r="E13" s="37"/>
     </row>
-    <row r="14" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -1272,7 +1287,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="37"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="25">
         <v>12</v>
       </c>
@@ -1285,7 +1300,7 @@
       <c r="D15" s="27"/>
       <c r="E15" s="37"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>13</v>
       </c>
